--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANHTESTER\SeleniumJava\Course_SeleniumJava_042022\SeleniumMaven42022Parallel\datatest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\AllureAndExtend\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D9CD9B-BFF8-480F-BFCC-E4490D418F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F71B9F9-F881-47FD-BA1D-A15D46D8413A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EE356032-7105-40D1-9155-08C684D97174}"/>
+    <workbookView xWindow="3180" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{EE356032-7105-40D1-9155-08C684D97174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -45,15 +36,6 @@
     <t>result</t>
   </si>
   <si>
-    <t>frances.burns</t>
-  </si>
-  <si>
-    <t>joe.larson</t>
-  </si>
-  <si>
-    <t>cedric.kelly</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -63,10 +45,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>admin_example</t>
-  </si>
-  <si>
-    <t>project_manager</t>
+    <t>hoan</t>
   </si>
 </sst>
 </file>
@@ -77,7 +56,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -86,7 +65,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,17 +422,17 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
-    <col min="2" max="2" width="16.61328125" customWidth="1"/>
-    <col min="3" max="3" width="14.23046875" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,100 +443,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>123456</v>
-      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
